--- a/references.xlsx
+++ b/references.xlsx
@@ -24,13 +24,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>롬복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://kwonnam.pe.kr/wiki/java/lombok/pitfall</t>
+  </si>
+  <si>
+    <t>log4j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://androphil.tistory.com/entry/Log4j%EC%9D%98-%EB%AA%A8%EB%93%A0-%EA%B2%83-%ED%99%98%EA%B2%BD-%EC%84%B8%ED%8C%85-%EC%82%AC%EC%9A%A9%EB%B2%95-%EA%B8%B0%EC%B4%88</t>
+  </si>
+  <si>
+    <t>transaction manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring/docs/current/spring-framework-reference/html/transaction.html</t>
+  </si>
+  <si>
+    <t>http://zgundam.tistory.com/86</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/35258758/getservletconfigclasses-vs-getrootconfigclasses-when-extending-abstractannot</t>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -360,20 +384,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/references.xlsx
+++ b/references.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>롬복</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,20 @@
   </si>
   <si>
     <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatcher servlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://egloos.zum.com/springmvc/v/504151</t>
+  </si>
+  <si>
+    <t>https://opentutorials.org/course/559/2802</t>
+  </si>
+  <si>
+    <t>domain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -429,6 +443,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
